--- a/database/meta/app_tags.xlsx
+++ b/database/meta/app_tags.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="m-map" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="s-app" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -414,10 +414,10 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.35"/>
   </cols>
@@ -887,7 +887,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
